--- a/details-microservice/agenda_medica_masiva.xlsx
+++ b/details-microservice/agenda_medica_masiva.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Edson Parker" r:id="rId3" sheetId="1"/>
     <sheet name="George Johnson" r:id="rId4" sheetId="2"/>
-    <sheet name="Maria Galindo" r:id="rId5" sheetId="3"/>
+    <sheet name="Juana Lugo" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -55,7 +55,7 @@
     <t>2023-11-09 18:00:00.0</t>
   </si>
   <si>
-    <t>Larry Moreno Alvarez</t>
+    <t>Larry Morena Alvarez</t>
   </si>
   <si>
     <t>2</t>
@@ -91,7 +91,7 @@
     <t>2023-11-10 19:30:00.0</t>
   </si>
   <si>
-    <t>Maria Galindo</t>
+    <t>Juana Lugo</t>
   </si>
   <si>
     <t>2023-11-10 18:30:00.0</t>
@@ -374,8 +374,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.31640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.96875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>

--- a/details-microservice/agenda_medica_masiva.xlsx
+++ b/details-microservice/agenda_medica_masiva.xlsx
@@ -9,12 +9,18 @@
     <sheet name="Edson Parker" r:id="rId3" sheetId="1"/>
     <sheet name="George Johnson" r:id="rId4" sheetId="2"/>
     <sheet name="Juana Lugo" r:id="rId5" sheetId="3"/>
+    <sheet name="Elsa Lugo" r:id="rId6" sheetId="4"/>
+    <sheet name="Jose Gutierrez" r:id="rId7" sheetId="5"/>
+    <sheet name="Carlos Fernández" r:id="rId8" sheetId="6"/>
+    <sheet name="Luisa Robles" r:id="rId9" sheetId="7"/>
+    <sheet name="Sofía García" r:id="rId10" sheetId="8"/>
+    <sheet name="José Martínez" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="38">
   <si>
     <t>Detail ID</t>
   </si>
@@ -37,64 +43,97 @@
     <t>Appointment Time</t>
   </si>
   <si>
-    <t>Salome Uribe Lopez</t>
+    <t>Symptom</t>
+  </si>
+  <si>
+    <t>Dellanit Rodriguez Bazurdo</t>
   </si>
   <si>
     <t>Edson Parker</t>
   </si>
   <si>
-    <t>1</t>
+    <t>278</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>Agendado</t>
+  </si>
+  <si>
+    <t>2023-11-12T21:30:00-05:00</t>
+  </si>
+  <si>
+    <t>Sangrado incontrolable</t>
+  </si>
+  <si>
+    <t>Andres Lugo Rodriguez</t>
+  </si>
+  <si>
+    <t>269</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Agendado</t>
-  </si>
-  <si>
-    <t>2023-11-09 18:00:00.0</t>
-  </si>
-  <si>
-    <t>Larry Morena Alvarez</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>2023-11-09 19:00:00.0</t>
-  </si>
-  <si>
-    <t>Dellanit Rodriguez Bazurdo</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>2023-11-09 18:30:00.0</t>
+    <t>2023-11-12T21:00:00-05:00</t>
   </si>
   <si>
     <t>George Johnson</t>
   </si>
   <si>
-    <t>2023-11-10 18:00:00.0</t>
-  </si>
-  <si>
-    <t>2023-11-10 19:00:00.0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2023-11-10 19:30:00.0</t>
+    <t>270</t>
+  </si>
+  <si>
+    <t>2023-11-12T21:00:02.927-05:00</t>
   </si>
   <si>
     <t>Juana Lugo</t>
   </si>
   <si>
-    <t>2023-11-10 18:30:00.0</t>
+    <t>272</t>
+  </si>
+  <si>
+    <t>Elsa Lugo</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>Jose Gutierrez</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>2023-11-12T22:30:00-05:00</t>
+  </si>
+  <si>
+    <t>Dolor leve</t>
+  </si>
+  <si>
+    <t>Carlos Fernández</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>Luisa Robles</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>Sofía García</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>José Martínez</t>
+  </si>
+  <si>
+    <t>277</t>
   </si>
 </sst>
 </file>
@@ -139,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -151,7 +190,8 @@
     <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.33984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.96875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -176,74 +216,60 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>15.0</v>
+        <v>239.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>16.0</v>
+        <v>230.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -253,7 +279,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.5546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.8671875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.8125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -261,11 +362,12 @@
   <cols>
     <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.23828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.96875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.33984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.96875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -290,74 +392,34 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>18.0</v>
+        <v>233.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -365,21 +427,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.23828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.96875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.33984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.96875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -404,51 +467,409 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>21.0</v>
+        <v>234.0</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="H2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.73046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.96875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.16796875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="C2" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.41015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.96875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.8125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
       <c r="G2" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>22.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="H2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.96875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.96875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.8125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>236.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>21</v>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.96875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.96875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.8125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>237.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.4140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="22.953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.79296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.12109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.96875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="21.8125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
